--- a/data/trans_orig/P14C25-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P14C25-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EBA5F8A3-0710-4200-81DA-08930F8528CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{91F63F35-9F2B-4988-B4E3-C1F7C6BB2626}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{785D9DAB-F057-42E3-82EB-D8260A41E0F1}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{F8114F63-0B26-4BDF-8D8F-D793EEC23927}"/>
   </bookViews>
   <sheets>
     <sheet name="2015" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="123">
   <si>
     <t>Población según el tiempo de diagnóstico del otros problemas mentales en 2015 (Tasa respuesta: 0,88%)</t>
   </si>
@@ -89,9 +89,6 @@
     <t>76,7%</t>
   </si>
   <si>
-    <t>1,59%</t>
-  </si>
-  <si>
     <t>De 1 a 4 años</t>
   </si>
   <si>
@@ -107,9 +104,6 @@
     <t>23,3%</t>
   </si>
   <si>
-    <t>98,41%</t>
-  </si>
-  <si>
     <t>Ultimos 12 meses</t>
   </si>
   <si>
@@ -122,7 +116,7 @@
     <t>16,19%</t>
   </si>
   <si>
-    <t>75,23%</t>
+    <t>78,29%</t>
   </si>
   <si>
     <t>22,85%</t>
@@ -131,13 +125,13 @@
     <t>27,18%</t>
   </si>
   <si>
-    <t>80,79%</t>
+    <t>81,0%</t>
   </si>
   <si>
     <t>83,81%</t>
   </si>
   <si>
-    <t>24,77%</t>
+    <t>21,71%</t>
   </si>
   <si>
     <t>77,15%</t>
@@ -146,7 +140,7 @@
     <t>72,82%</t>
   </si>
   <si>
-    <t>19,21%</t>
+    <t>19,0%</t>
   </si>
   <si>
     <t>30,57%</t>
@@ -161,91 +155,91 @@
     <t>60,24%</t>
   </si>
   <si>
-    <t>19,34%</t>
+    <t>19,47%</t>
   </si>
   <si>
     <t>82,18%</t>
   </si>
   <si>
-    <t>27,17%</t>
+    <t>26,99%</t>
   </si>
   <si>
     <t>71,93%</t>
   </si>
   <si>
-    <t>39,85%</t>
-  </si>
-  <si>
-    <t>91,46%</t>
+    <t>40,25%</t>
+  </si>
+  <si>
+    <t>91,64%</t>
   </si>
   <si>
     <t>18,63%</t>
   </si>
   <si>
-    <t>79,12%</t>
+    <t>78,52%</t>
   </si>
   <si>
     <t>17,82%</t>
   </si>
   <si>
-    <t>72,83%</t>
+    <t>73,01%</t>
   </si>
   <si>
     <t>18,2%</t>
   </si>
   <si>
-    <t>49,65%</t>
+    <t>56,68%</t>
   </si>
   <si>
     <t>21,13%</t>
   </si>
   <si>
-    <t>81,94%</t>
+    <t>80,39%</t>
   </si>
   <si>
     <t>9,87%</t>
   </si>
   <si>
+    <t>45,75%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>87,94%</t>
+  </si>
+  <si>
     <t>42,06%</t>
   </si>
   <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>87,94%</t>
-  </si>
-  <si>
-    <t>42,26%</t>
-  </si>
-  <si>
     <t>71,08%</t>
   </si>
   <si>
-    <t>13,2%</t>
+    <t>13,4%</t>
   </si>
   <si>
     <t>81,27%</t>
   </si>
   <si>
-    <t>53,2%</t>
+    <t>52,16%</t>
   </si>
   <si>
     <t>12,06%</t>
   </si>
   <si>
-    <t>57,74%</t>
+    <t>57,94%</t>
   </si>
   <si>
     <t>28,92%</t>
   </si>
   <si>
-    <t>86,8%</t>
+    <t>86,6%</t>
   </si>
   <si>
     <t>18,73%</t>
   </si>
   <si>
-    <t>46,8%</t>
+    <t>47,84%</t>
   </si>
   <si>
     <t>18,74%</t>
@@ -266,7 +260,7 @@
     <t>84,89%</t>
   </si>
   <si>
-    <t>33,88%</t>
+    <t>34,18%</t>
   </si>
   <si>
     <t>44,41%</t>
@@ -278,7 +272,7 @@
     <t>15,11%</t>
   </si>
   <si>
-    <t>66,12%</t>
+    <t>65,82%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -347,61 +341,58 @@
     <t>59,58%</t>
   </si>
   <si>
-    <t>40,34%</t>
-  </si>
-  <si>
-    <t>76,89%</t>
+    <t>41,26%</t>
   </si>
   <si>
     <t>70,41%</t>
   </si>
   <si>
-    <t>49,05%</t>
-  </si>
-  <si>
-    <t>86,96%</t>
+    <t>47,61%</t>
+  </si>
+  <si>
+    <t>85,93%</t>
   </si>
   <si>
     <t>64,99%</t>
   </si>
   <si>
-    <t>50,77%</t>
-  </si>
-  <si>
-    <t>76,68%</t>
+    <t>50,85%</t>
+  </si>
+  <si>
+    <t>77,23%</t>
   </si>
   <si>
     <t>33,59%</t>
   </si>
   <si>
-    <t>18,7%</t>
-  </si>
-  <si>
-    <t>52,95%</t>
+    <t>18,65%</t>
+  </si>
+  <si>
+    <t>52,29%</t>
   </si>
   <si>
     <t>29,59%</t>
   </si>
   <si>
-    <t>13,04%</t>
-  </si>
-  <si>
-    <t>50,95%</t>
+    <t>14,07%</t>
+  </si>
+  <si>
+    <t>52,39%</t>
   </si>
   <si>
     <t>31,59%</t>
   </si>
   <si>
-    <t>19,63%</t>
-  </si>
-  <si>
-    <t>45,21%</t>
+    <t>19,28%</t>
+  </si>
+  <si>
+    <t>44,86%</t>
   </si>
   <si>
     <t>6,84%</t>
   </si>
   <si>
-    <t>22,31%</t>
+    <t>20,95%</t>
   </si>
   <si>
     <t>6,81%</t>
@@ -410,7 +401,7 @@
     <t>3,42%</t>
   </si>
   <si>
-    <t>11,86%</t>
+    <t>11,88%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -825,7 +816,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C9D3689-BADD-473F-B62E-98445539DCE3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D54492D2-0BF8-4A50-8E8D-1505B5B079C4}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -982,7 +973,7 @@
         <v>16</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>11</v>
@@ -991,22 +982,22 @@
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="7">
+        <v>0</v>
+      </c>
+      <c r="D5" s="7">
+        <v>0</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7">
-        <v>0</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="H5" s="7">
         <v>1</v>
@@ -1015,7 +1006,7 @@
         <v>996</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>15</v>
@@ -1030,19 +1021,19 @@
         <v>996</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C6" s="7">
         <v>0</v>
@@ -1054,11 +1045,11 @@
         <v>15</v>
       </c>
       <c r="F6" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="G6" s="7" t="s">
-        <v>20</v>
-      </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
@@ -1069,11 +1060,11 @@
         <v>15</v>
       </c>
       <c r="K6" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="L6" s="7" t="s">
-        <v>20</v>
-      </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
@@ -1084,10 +1075,10 @@
         <v>15</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -1143,7 +1134,7 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -1155,13 +1146,13 @@
         <v>951</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
@@ -1173,7 +1164,7 @@
         <v>11</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>13</v>
@@ -1185,19 +1176,19 @@
         <v>1838</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C9" s="7">
         <v>4</v>
@@ -1206,10 +1197,10 @@
         <v>4925</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G9" s="7" t="s">
         <v>11</v>
@@ -1224,10 +1215,10 @@
         <v>15</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="M9" s="7">
         <v>4</v>
@@ -1236,10 +1227,10 @@
         <v>4925</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="Q9" s="7" t="s">
         <v>11</v>
@@ -1248,7 +1239,7 @@
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C10" s="7">
         <v>0</v>
@@ -1260,10 +1251,10 @@
         <v>15</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -1275,10 +1266,10 @@
         <v>15</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -1290,10 +1281,10 @@
         <v>15</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1349,7 +1340,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -1361,10 +1352,10 @@
         <v>2904</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>11</v>
@@ -1376,10 +1367,10 @@
         <v>4523</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="L12" s="7" t="s">
         <v>11</v>
@@ -1391,19 +1382,19 @@
         <v>7427</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C13" s="7">
         <v>1</v>
@@ -1412,13 +1403,13 @@
         <v>898</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
@@ -1427,13 +1418,13 @@
         <v>981</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="M13" s="7">
         <v>2</v>
@@ -1442,19 +1433,19 @@
         <v>1879</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C14" s="7">
         <v>1</v>
@@ -1463,13 +1454,13 @@
         <v>1019</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -1481,10 +1472,10 @@
         <v>15</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M14" s="7">
         <v>1</v>
@@ -1493,13 +1484,13 @@
         <v>1019</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1555,7 +1546,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1567,10 +1558,10 @@
         <v>7923</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>11</v>
@@ -1582,10 +1573,10 @@
         <v>4196</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>11</v>
@@ -1597,10 +1588,10 @@
         <v>12120</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>11</v>
@@ -1609,7 +1600,7 @@
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C17" s="7">
         <v>1</v>
@@ -1618,13 +1609,13 @@
         <v>1086</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H17" s="7">
         <v>1</v>
@@ -1633,13 +1624,13 @@
         <v>1708</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="M17" s="7">
         <v>2</v>
@@ -1648,19 +1639,19 @@
         <v>2794</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C18" s="7">
         <v>0</v>
@@ -1672,10 +1663,10 @@
         <v>15</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
@@ -1687,10 +1678,10 @@
         <v>15</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M18" s="7">
         <v>0</v>
@@ -1702,10 +1693,10 @@
         <v>15</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1761,7 +1752,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -1773,7 +1764,7 @@
         <v>2240</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>15</v>
@@ -1791,7 +1782,7 @@
         <v>11</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>13</v>
@@ -1803,10 +1794,10 @@
         <v>6386</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>11</v>
@@ -1815,22 +1806,22 @@
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" s="7">
+        <v>0</v>
+      </c>
+      <c r="D21" s="7">
+        <v>0</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="7">
-        <v>0</v>
-      </c>
-      <c r="D21" s="7">
-        <v>0</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>19</v>
-      </c>
       <c r="G21" s="7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -1842,10 +1833,10 @@
         <v>15</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="M21" s="7">
         <v>0</v>
@@ -1857,16 +1848,16 @@
         <v>15</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C22" s="7">
         <v>1</v>
@@ -1875,7 +1866,7 @@
         <v>1137</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>15</v>
@@ -1893,10 +1884,10 @@
         <v>15</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="M22" s="7">
         <v>1</v>
@@ -1905,13 +1896,13 @@
         <v>1137</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -1967,7 +1958,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -1979,13 +1970,13 @@
         <v>2429</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="H24" s="7">
         <v>7</v>
@@ -1994,13 +1985,13 @@
         <v>7486</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>87</v>
       </c>
       <c r="M24" s="7">
         <v>10</v>
@@ -2009,19 +2000,19 @@
         <v>9915</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C25" s="7">
         <v>4</v>
@@ -2030,13 +2021,13 @@
         <v>3681</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H25" s="7">
         <v>4</v>
@@ -2045,13 +2036,13 @@
         <v>5636</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>95</v>
       </c>
       <c r="M25" s="7">
         <v>8</v>
@@ -2060,19 +2051,19 @@
         <v>9317</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C26" s="7">
         <v>0</v>
@@ -2084,40 +2075,40 @@
         <v>15</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G26" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="H26" s="7">
+        <v>0</v>
+      </c>
+      <c r="I26" s="7">
+        <v>0</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="M26" s="7">
+        <v>0</v>
+      </c>
+      <c r="N26" s="7">
+        <v>0</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="H26" s="7">
-        <v>0</v>
-      </c>
-      <c r="I26" s="7">
-        <v>0</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="M26" s="7">
-        <v>0</v>
-      </c>
-      <c r="N26" s="7">
-        <v>0</v>
-      </c>
-      <c r="O26" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2185,13 +2176,13 @@
         <v>18786</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>104</v>
+        <v>16</v>
       </c>
       <c r="H28" s="7">
         <v>20</v>
@@ -2200,13 +2191,13 @@
         <v>22179</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="M28" s="7">
         <v>39</v>
@@ -2215,19 +2206,19 @@
         <v>40965</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C29" s="7">
         <v>10</v>
@@ -2236,13 +2227,13 @@
         <v>10590</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="H29" s="7">
         <v>7</v>
@@ -2251,13 +2242,13 @@
         <v>9321</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="M29" s="7">
         <v>17</v>
@@ -2266,19 +2257,19 @@
         <v>19911</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C30" s="7">
         <v>2</v>
@@ -2287,13 +2278,13 @@
         <v>2155</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="F30" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
@@ -2305,10 +2296,10 @@
         <v>15</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="M30" s="7">
         <v>2</v>
@@ -2317,13 +2308,13 @@
         <v>2155</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="P30" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2379,7 +2370,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P14C25-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P14C25-Edad-trans_orig.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{91F63F35-9F2B-4988-B4E3-C1F7C6BB2626}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{94AC47B7-EDBD-407B-9D0C-1C25F3581FBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{F8114F63-0B26-4BDF-8D8F-D793EEC23927}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{D40C8D06-3DB2-4798-AD98-BD8A3E0CA955}"/>
   </bookViews>
   <sheets>
-    <sheet name="2015" sheetId="2" r:id="rId1"/>
+    <sheet name="2016" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,9 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="123">
-  <si>
-    <t>Población según el tiempo de diagnóstico del otros problemas mentales en 2015 (Tasa respuesta: 0,88%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="126">
+  <si>
+    <t>Población según el tiempo de diagnóstico del otros problemas mentales en 2016 (Tasa respuesta: 0,88%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -89,6 +89,9 @@
     <t>76,7%</t>
   </si>
   <si>
+    <t>23,83%</t>
+  </si>
+  <si>
     <t>De 1 a 4 años</t>
   </si>
   <si>
@@ -104,6 +107,9 @@
     <t>23,3%</t>
   </si>
   <si>
+    <t>76,17%</t>
+  </si>
+  <si>
     <t>Ultimos 12 meses</t>
   </si>
   <si>
@@ -125,7 +131,7 @@
     <t>27,18%</t>
   </si>
   <si>
-    <t>81,0%</t>
+    <t>81,22%</t>
   </si>
   <si>
     <t>83,81%</t>
@@ -140,7 +146,7 @@
     <t>72,82%</t>
   </si>
   <si>
-    <t>19,0%</t>
+    <t>18,78%</t>
   </si>
   <si>
     <t>30,57%</t>
@@ -155,52 +161,52 @@
     <t>60,24%</t>
   </si>
   <si>
-    <t>19,47%</t>
+    <t>19,34%</t>
   </si>
   <si>
     <t>82,18%</t>
   </si>
   <si>
-    <t>26,99%</t>
+    <t>39,89%</t>
   </si>
   <si>
     <t>71,93%</t>
   </si>
   <si>
-    <t>40,25%</t>
-  </si>
-  <si>
-    <t>91,64%</t>
+    <t>39,48%</t>
+  </si>
+  <si>
+    <t>92,45%</t>
   </si>
   <si>
     <t>18,63%</t>
   </si>
   <si>
-    <t>78,52%</t>
+    <t>78,69%</t>
   </si>
   <si>
     <t>17,82%</t>
   </si>
   <si>
-    <t>73,01%</t>
+    <t>60,11%</t>
   </si>
   <si>
     <t>18,2%</t>
   </si>
   <si>
-    <t>56,68%</t>
+    <t>47,74%</t>
   </si>
   <si>
     <t>21,13%</t>
   </si>
   <si>
-    <t>80,39%</t>
+    <t>81,45%</t>
   </si>
   <si>
     <t>9,87%</t>
   </si>
   <si>
-    <t>45,75%</t>
+    <t>47,6%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -209,37 +215,37 @@
     <t>87,94%</t>
   </si>
   <si>
-    <t>42,06%</t>
+    <t>53,05%</t>
   </si>
   <si>
     <t>71,08%</t>
   </si>
   <si>
-    <t>13,4%</t>
+    <t>14,0%</t>
   </si>
   <si>
     <t>81,27%</t>
   </si>
   <si>
-    <t>52,16%</t>
+    <t>50,18%</t>
   </si>
   <si>
     <t>12,06%</t>
   </si>
   <si>
-    <t>57,94%</t>
+    <t>46,95%</t>
   </si>
   <si>
     <t>28,92%</t>
   </si>
   <si>
-    <t>86,6%</t>
+    <t>86,0%</t>
   </si>
   <si>
     <t>18,73%</t>
   </si>
   <si>
-    <t>47,84%</t>
+    <t>49,82%</t>
   </si>
   <si>
     <t>18,74%</t>
@@ -260,7 +266,7 @@
     <t>84,89%</t>
   </si>
   <si>
-    <t>34,18%</t>
+    <t>33,76%</t>
   </si>
   <si>
     <t>44,41%</t>
@@ -272,7 +278,7 @@
     <t>15,11%</t>
   </si>
   <si>
-    <t>65,82%</t>
+    <t>66,24%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -281,52 +287,52 @@
     <t>39,76%</t>
   </si>
   <si>
-    <t>12,11%</t>
-  </si>
-  <si>
-    <t>84,46%</t>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>82,33%</t>
   </si>
   <si>
     <t>57,05%</t>
   </si>
   <si>
-    <t>22,27%</t>
-  </si>
-  <si>
-    <t>84,0%</t>
+    <t>24,18%</t>
+  </si>
+  <si>
+    <t>89,2%</t>
   </si>
   <si>
     <t>51,55%</t>
   </si>
   <si>
-    <t>25,85%</t>
-  </si>
-  <si>
-    <t>74,76%</t>
-  </si>
-  <si>
-    <t>15,54%</t>
-  </si>
-  <si>
-    <t>87,89%</t>
+    <t>27,71%</t>
+  </si>
+  <si>
+    <t>74,79%</t>
+  </si>
+  <si>
+    <t>17,67%</t>
+  </si>
+  <si>
+    <t>87,96%</t>
   </si>
   <si>
     <t>42,95%</t>
   </si>
   <si>
-    <t>16,0%</t>
-  </si>
-  <si>
-    <t>77,73%</t>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>75,82%</t>
   </si>
   <si>
     <t>48,45%</t>
   </si>
   <si>
-    <t>25,24%</t>
-  </si>
-  <si>
-    <t>74,15%</t>
+    <t>25,21%</t>
+  </si>
+  <si>
+    <t>72,29%</t>
   </si>
   <si>
     <t>23,25%</t>
@@ -341,58 +347,61 @@
     <t>59,58%</t>
   </si>
   <si>
-    <t>41,26%</t>
+    <t>41,25%</t>
+  </si>
+  <si>
+    <t>75,15%</t>
   </si>
   <si>
     <t>70,41%</t>
   </si>
   <si>
-    <t>47,61%</t>
-  </si>
-  <si>
-    <t>85,93%</t>
+    <t>49,5%</t>
+  </si>
+  <si>
+    <t>86,5%</t>
   </si>
   <si>
     <t>64,99%</t>
   </si>
   <si>
-    <t>50,85%</t>
-  </si>
-  <si>
-    <t>77,23%</t>
+    <t>51,46%</t>
+  </si>
+  <si>
+    <t>77,48%</t>
   </si>
   <si>
     <t>33,59%</t>
   </si>
   <si>
-    <t>18,65%</t>
-  </si>
-  <si>
-    <t>52,29%</t>
+    <t>19,32%</t>
+  </si>
+  <si>
+    <t>53,88%</t>
   </si>
   <si>
     <t>29,59%</t>
   </si>
   <si>
-    <t>14,07%</t>
-  </si>
-  <si>
-    <t>52,39%</t>
+    <t>13,5%</t>
+  </si>
+  <si>
+    <t>50,5%</t>
   </si>
   <si>
     <t>31,59%</t>
   </si>
   <si>
-    <t>19,28%</t>
-  </si>
-  <si>
-    <t>44,86%</t>
+    <t>19,5%</t>
+  </si>
+  <si>
+    <t>46,3%</t>
   </si>
   <si>
     <t>6,84%</t>
   </si>
   <si>
-    <t>20,95%</t>
+    <t>23,01%</t>
   </si>
   <si>
     <t>6,81%</t>
@@ -401,7 +410,7 @@
     <t>3,42%</t>
   </si>
   <si>
-    <t>11,88%</t>
+    <t>10,55%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -816,7 +825,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D54492D2-0BF8-4A50-8E8D-1505B5B079C4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE7AE143-4A4C-4E3B-9680-7FF003538B56}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -973,7 +982,7 @@
         <v>16</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>11</v>
@@ -982,7 +991,7 @@
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C5" s="7">
         <v>0</v>
@@ -994,10 +1003,10 @@
         <v>15</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H5" s="7">
         <v>1</v>
@@ -1006,7 +1015,7 @@
         <v>996</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>15</v>
@@ -1021,19 +1030,19 @@
         <v>996</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C6" s="7">
         <v>0</v>
@@ -1045,40 +1054,40 @@
         <v>15</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G6" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" s="7">
+        <v>0</v>
+      </c>
+      <c r="I6" s="7">
+        <v>0</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7">
-        <v>0</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>18</v>
-      </c>
       <c r="L6" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="M6" s="7">
+        <v>0</v>
+      </c>
+      <c r="N6" s="7">
+        <v>0</v>
+      </c>
+      <c r="O6" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7">
-        <v>0</v>
-      </c>
-      <c r="O6" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>18</v>
-      </c>
       <c r="Q6" s="7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -1134,7 +1143,7 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -1146,13 +1155,13 @@
         <v>951</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
@@ -1164,7 +1173,7 @@
         <v>11</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>13</v>
@@ -1176,19 +1185,19 @@
         <v>1838</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C9" s="7">
         <v>4</v>
@@ -1197,10 +1206,10 @@
         <v>4925</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G9" s="7" t="s">
         <v>11</v>
@@ -1215,10 +1224,10 @@
         <v>15</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M9" s="7">
         <v>4</v>
@@ -1227,10 +1236,10 @@
         <v>4925</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="Q9" s="7" t="s">
         <v>11</v>
@@ -1239,7 +1248,7 @@
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C10" s="7">
         <v>0</v>
@@ -1251,10 +1260,10 @@
         <v>15</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -1266,10 +1275,10 @@
         <v>15</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -1281,10 +1290,10 @@
         <v>15</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1340,7 +1349,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -1352,10 +1361,10 @@
         <v>2904</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>11</v>
@@ -1367,10 +1376,10 @@
         <v>4523</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="L12" s="7" t="s">
         <v>11</v>
@@ -1382,19 +1391,19 @@
         <v>7427</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C13" s="7">
         <v>1</v>
@@ -1403,13 +1412,13 @@
         <v>898</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
@@ -1418,13 +1427,13 @@
         <v>981</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="M13" s="7">
         <v>2</v>
@@ -1433,19 +1442,19 @@
         <v>1879</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C14" s="7">
         <v>1</v>
@@ -1454,13 +1463,13 @@
         <v>1019</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -1472,10 +1481,10 @@
         <v>15</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="M14" s="7">
         <v>1</v>
@@ -1484,13 +1493,13 @@
         <v>1019</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1546,7 +1555,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1558,10 +1567,10 @@
         <v>7923</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>11</v>
@@ -1573,10 +1582,10 @@
         <v>4196</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>11</v>
@@ -1588,10 +1597,10 @@
         <v>12120</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>11</v>
@@ -1600,7 +1609,7 @@
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C17" s="7">
         <v>1</v>
@@ -1609,13 +1618,13 @@
         <v>1086</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="H17" s="7">
         <v>1</v>
@@ -1624,13 +1633,13 @@
         <v>1708</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="M17" s="7">
         <v>2</v>
@@ -1639,19 +1648,19 @@
         <v>2794</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C18" s="7">
         <v>0</v>
@@ -1663,10 +1672,10 @@
         <v>15</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
@@ -1678,10 +1687,10 @@
         <v>15</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="M18" s="7">
         <v>0</v>
@@ -1693,10 +1702,10 @@
         <v>15</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1752,7 +1761,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -1764,7 +1773,7 @@
         <v>2240</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>15</v>
@@ -1782,7 +1791,7 @@
         <v>11</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>13</v>
@@ -1794,10 +1803,10 @@
         <v>6386</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>11</v>
@@ -1806,7 +1815,7 @@
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C21" s="7">
         <v>0</v>
@@ -1818,10 +1827,10 @@
         <v>15</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -1833,10 +1842,10 @@
         <v>15</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="M21" s="7">
         <v>0</v>
@@ -1848,16 +1857,16 @@
         <v>15</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C22" s="7">
         <v>1</v>
@@ -1866,7 +1875,7 @@
         <v>1137</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>15</v>
@@ -1884,10 +1893,10 @@
         <v>15</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="M22" s="7">
         <v>1</v>
@@ -1896,13 +1905,13 @@
         <v>1137</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -1958,7 +1967,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -1970,13 +1979,13 @@
         <v>2429</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H24" s="7">
         <v>7</v>
@@ -1985,13 +1994,13 @@
         <v>7486</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="M24" s="7">
         <v>10</v>
@@ -2000,19 +2009,19 @@
         <v>9915</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C25" s="7">
         <v>4</v>
@@ -2021,13 +2030,13 @@
         <v>3681</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="H25" s="7">
         <v>4</v>
@@ -2036,13 +2045,13 @@
         <v>5636</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="M25" s="7">
         <v>8</v>
@@ -2051,19 +2060,19 @@
         <v>9317</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C26" s="7">
         <v>0</v>
@@ -2075,10 +2084,10 @@
         <v>15</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -2090,10 +2099,10 @@
         <v>15</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -2105,10 +2114,10 @@
         <v>15</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2176,13 +2185,13 @@
         <v>18786</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>16</v>
+        <v>104</v>
       </c>
       <c r="H28" s="7">
         <v>20</v>
@@ -2191,13 +2200,13 @@
         <v>22179</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="M28" s="7">
         <v>39</v>
@@ -2206,19 +2215,19 @@
         <v>40965</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C29" s="7">
         <v>10</v>
@@ -2227,13 +2236,13 @@
         <v>10590</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="H29" s="7">
         <v>7</v>
@@ -2242,13 +2251,13 @@
         <v>9321</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="M29" s="7">
         <v>17</v>
@@ -2257,19 +2266,19 @@
         <v>19911</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C30" s="7">
         <v>2</v>
@@ -2278,13 +2287,13 @@
         <v>2155</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="F30" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
@@ -2296,10 +2305,10 @@
         <v>15</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="M30" s="7">
         <v>2</v>
@@ -2308,13 +2317,13 @@
         <v>2155</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="P30" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2370,7 +2379,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
